--- a/data/reg_dif_med_results/union_dif_medias.xlsx
+++ b/data/reg_dif_med_results/union_dif_medias.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiaaristizabal/Desktop/1 economia/7/econometría avanzada/proyecto_econometria_avanzada/data/reg_dif_med_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD79422-C15A-2443-BBF4-84FC6127B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80808B6-EB7D-004D-AEEC-499E18ED8248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{12C26374-E265-484C-AE7D-406AF85427E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{12C26374-E265-484C-AE7D-406AF85427E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="para anexo" sheetId="2" r:id="rId2"/>
+    <sheet name="vars seleccionadas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="387">
   <si>
     <t/>
   </si>
@@ -1195,6 +1196,9 @@
   </si>
   <si>
     <t>Diferencia de medias</t>
+  </si>
+  <si>
+    <t>u7</t>
   </si>
 </sst>
 </file>
@@ -1264,11 +1268,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1276,14 +1277,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1292,17 +1287,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1642,7 +1643,7 @@
   <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8189,44 +8190,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F51145-FCF5-4A44-B6BD-92F47BC30383}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="H1" zoomScale="93" workbookViewId="0">
+      <selection sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="13" customWidth="1"/>
-    <col min="2" max="16" width="25.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="8" customWidth="1"/>
+    <col min="2" max="16" width="25.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>329</v>
       </c>
       <c r="D2" s="1"/>
@@ -8237,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>329</v>
       </c>
       <c r="I2" s="1"/>
@@ -8248,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>329</v>
       </c>
       <c r="N2" s="1"/>
@@ -8260,7 +8261,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>2023</v>
@@ -8290,7 +8291,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8340,19 +8341,19 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B5" s="1">
         <v>15650</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <v>2535</v>
       </c>
       <c r="D5" s="1">
         <v>16733</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="1">
         <v>2642</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -8361,13 +8362,13 @@
       <c r="G5" s="1">
         <v>11383</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="1">
         <v>2673</v>
       </c>
       <c r="I5" s="1">
         <v>28280</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="1">
         <v>2370</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -8376,13 +8377,13 @@
       <c r="L5" s="1">
         <v>28280</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="1">
         <v>2370</v>
       </c>
       <c r="N5" s="1">
         <v>16733</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="1">
         <v>2642</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -8390,7 +8391,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>187</v>
@@ -8419,58 +8420,58 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>20667</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>38979</v>
       </c>
-      <c r="D7" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E7" s="7">
         <v>39313</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>11383</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>37831</v>
       </c>
-      <c r="I7" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="I7" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J7" s="7">
         <v>37959</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L7" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="L7" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M7" s="7">
         <v>37959</v>
       </c>
-      <c r="N7" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="N7" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O7" s="7">
         <v>39313</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>193</v>
@@ -8500,7 +8501,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B9" s="1">
@@ -8550,7 +8551,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>198</v>
@@ -8580,7 +8581,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B11" s="1">
@@ -8630,7 +8631,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>202</v>
@@ -8660,19 +8661,19 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B13" s="1">
         <v>20667</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="1">
         <v>3571</v>
       </c>
       <c r="D13" s="1">
         <v>17601</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="1">
         <v>3788</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -8681,13 +8682,13 @@
       <c r="G13" s="1">
         <v>11383</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="1">
         <v>4171</v>
       </c>
       <c r="I13" s="1">
         <v>28281</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="1">
         <v>3802</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -8696,13 +8697,13 @@
       <c r="L13" s="1">
         <v>28281</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="1">
         <v>3802</v>
       </c>
       <c r="N13" s="1">
         <v>17601</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="1">
         <v>3788</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -8710,7 +8711,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>206</v>
@@ -8739,58 +8740,58 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>20667</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <v>11383</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="L15" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O15" s="10" t="s">
+      <c r="N15" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>211</v>
@@ -8819,7 +8820,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>381</v>
       </c>
@@ -8840,7 +8841,7 @@
       <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B18" s="1">
@@ -8890,7 +8891,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>198</v>
@@ -8920,7 +8921,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B20" s="1">
@@ -8970,7 +8971,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>214</v>
@@ -8999,8 +9000,8 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B22" s="1">
@@ -9050,7 +9051,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>202</v>
@@ -9079,8 +9080,8 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B24" s="1">
@@ -9130,7 +9131,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>202</v>
@@ -9159,58 +9160,58 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>20667</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="7">
         <v>11383</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I26" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="I26" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M26" s="10" t="s">
+      <c r="L26" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="N26" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O26" s="10" t="s">
+      <c r="N26" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>198</v>
@@ -9240,7 +9241,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B28" s="1">
@@ -9290,7 +9291,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>214</v>
@@ -9320,7 +9321,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B30" s="1">
@@ -9370,7 +9371,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>198</v>
@@ -9400,7 +9401,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B32" s="1">
@@ -9450,7 +9451,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>202</v>
@@ -9479,58 +9480,58 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="7">
         <v>20667</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="7">
         <v>11383</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I34" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J34" s="10" t="s">
+      <c r="I34" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M34" s="10" t="s">
+      <c r="L34" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="N34" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O34" s="10" t="s">
+      <c r="N34" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>211</v>
@@ -9560,7 +9561,7 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B36" s="1">
@@ -9610,7 +9611,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>214</v>
@@ -9640,57 +9641,57 @@
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="7">
         <v>20667</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="D38" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="7">
         <v>11383</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I38" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J38" s="10" t="s">
+      <c r="I38" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M38" s="10" t="s">
+      <c r="L38" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O38" s="10" t="s">
+      <c r="N38" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="P38" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>198</v>
@@ -9719,7 +9720,7 @@
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>382</v>
       </c>
@@ -9740,7 +9741,7 @@
       <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B41" s="1">
@@ -9790,7 +9791,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>202</v>
@@ -9820,7 +9821,7 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B43" s="1">
@@ -9870,7 +9871,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
         <v>202</v>
@@ -9899,58 +9900,58 @@
       </c>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="7">
         <v>20667</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D45" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="7">
         <v>11383</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I45" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J45" s="10" t="s">
+      <c r="I45" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L45" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M45" s="10" t="s">
+      <c r="L45" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O45" s="10" t="s">
+      <c r="N45" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O45" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P45" s="10" t="s">
+      <c r="P45" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
         <v>198</v>
@@ -9979,8 +9980,8 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B47" s="1">
@@ -10030,7 +10031,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>211</v>
@@ -10060,7 +10061,7 @@
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B49" s="1">
@@ -10110,7 +10111,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>211</v>
@@ -10160,7 +10161,7 @@
       <c r="P51" s="12"/>
     </row>
     <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B52" s="1">
@@ -10210,7 +10211,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>198</v>
@@ -10240,7 +10241,7 @@
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B54" s="1">
@@ -10290,7 +10291,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>198</v>
@@ -10320,7 +10321,7 @@
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B56" s="1">
@@ -10370,7 +10371,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
+      <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>202</v>
@@ -10400,7 +10401,7 @@
       <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B58" s="1">
@@ -10450,7 +10451,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
+      <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>214</v>
@@ -10480,7 +10481,7 @@
       <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B60" s="1">
@@ -10530,7 +10531,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>211</v>
@@ -10559,8 +10560,8 @@
       </c>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B62" s="1">
@@ -10610,7 +10611,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
+      <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>211</v>
@@ -10640,7 +10641,7 @@
       <c r="P63" s="1"/>
     </row>
     <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B64" s="1">
@@ -10690,7 +10691,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
+      <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>198</v>
@@ -10720,7 +10721,7 @@
       <c r="P65" s="1"/>
     </row>
     <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B66" s="1">
@@ -10770,7 +10771,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
+      <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>198</v>
@@ -10800,7 +10801,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B68" s="1">
@@ -10850,7 +10851,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
+      <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
         <v>198</v>
@@ -10880,7 +10881,7 @@
       <c r="P69" s="1"/>
     </row>
     <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B70" s="1">
@@ -10930,7 +10931,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
+      <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>198</v>
@@ -10959,58 +10960,58 @@
       </c>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="7">
         <v>20667</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="D72" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="7">
         <v>11383</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I72" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J72" s="10" t="s">
+      <c r="I72" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M72" s="10" t="s">
+      <c r="L72" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N72" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O72" s="10" t="s">
+      <c r="N72" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="10" t="s">
+      <c r="P72" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
+      <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>211</v>
@@ -11040,7 +11041,7 @@
       <c r="P73" s="1"/>
     </row>
     <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B74" s="1">
@@ -11090,7 +11091,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
+      <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>198</v>
@@ -11139,8 +11140,8 @@
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
     </row>
-    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B77" s="1">
@@ -11190,7 +11191,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>198</v>
@@ -11219,8 +11220,8 @@
       </c>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B79" s="1">
@@ -11270,7 +11271,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
+      <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>211</v>
@@ -11300,7 +11301,7 @@
       <c r="P80" s="1"/>
     </row>
     <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B81" s="1">
@@ -11350,7 +11351,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
+      <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>214</v>
@@ -11379,8 +11380,8 @@
       </c>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B83" s="1">
@@ -11430,7 +11431,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
+      <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>211</v>
@@ -11460,57 +11461,57 @@
       <c r="P84" s="1"/>
     </row>
     <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="7">
         <v>20667</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="10">
-        <v>17601</v>
-      </c>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="7">
         <v>11383</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="I85" s="10">
-        <v>28281</v>
-      </c>
-      <c r="J85" s="10" t="s">
+      <c r="I85" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K85" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L85" s="10">
-        <v>28281</v>
-      </c>
-      <c r="M85" s="10" t="s">
+      <c r="L85" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M85" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="N85" s="10">
-        <v>17601</v>
-      </c>
-      <c r="O85" s="10" t="s">
+      <c r="N85" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O85" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P85" s="10" t="s">
+      <c r="P85" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
+      <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>214</v>
@@ -11539,8 +11540,8 @@
       </c>
       <c r="P86" s="1"/>
     </row>
-    <row r="87" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B87" s="1">
@@ -11590,7 +11591,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
+      <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>214</v>
@@ -11620,7 +11621,7 @@
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B89" s="1">
@@ -11670,7 +11671,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
+      <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>198</v>
@@ -11700,7 +11701,7 @@
       <c r="P90" s="1"/>
     </row>
     <row r="91" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B91" s="1">
@@ -11750,7 +11751,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
+      <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>214</v>
@@ -11780,7 +11781,7 @@
       <c r="P92" s="1"/>
     </row>
     <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B93" s="1">
@@ -11830,7 +11831,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
+      <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>198</v>
@@ -11860,7 +11861,7 @@
       <c r="P94" s="1"/>
     </row>
     <row r="95" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B95" s="1">
@@ -11910,7 +11911,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
+      <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>198</v>
@@ -11939,8 +11940,8 @@
       </c>
       <c r="P96" s="1"/>
     </row>
-    <row r="97" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B97" s="1">
@@ -11990,7 +11991,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
+      <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>198</v>
@@ -12020,7 +12021,7 @@
       <c r="P98" s="1"/>
     </row>
     <row r="99" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B99" s="1">
@@ -12070,7 +12071,7 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
+      <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
         <v>198</v>
@@ -12100,7 +12101,7 @@
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B101" s="1">
@@ -12150,7 +12151,7 @@
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
+      <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
         <v>198</v>
@@ -12179,8 +12180,8 @@
       </c>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B103" s="1">
@@ -12230,7 +12231,7 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
+      <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
         <v>202</v>
@@ -12259,8 +12260,8 @@
       </c>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B105" s="1">
@@ -12310,7 +12311,7 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
+      <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
         <v>198</v>
@@ -12339,8 +12340,8 @@
       </c>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B107" s="1">
@@ -12390,24 +12391,24 @@
       </c>
     </row>
     <row r="108" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12422,4 +12423,3681 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA427BDC-E1E7-3E48-8116-4EB2ABB27A86}">
+  <dimension ref="A1:P94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="8" customWidth="1"/>
+    <col min="2" max="16" width="25.6640625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15650</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2535</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16733</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2642</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2673</v>
+      </c>
+      <c r="I5" s="1">
+        <v>28280</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2370</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="1">
+        <v>28280</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2370</v>
+      </c>
+      <c r="N5" s="1">
+        <v>16733</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2642</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13503</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13503</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20663</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N9" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N14" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N18" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="7">
+        <v>20667</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7">
+        <v>11383</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I20" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N22" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N24" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N26" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="7">
+        <v>20667</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="7">
+        <v>11383</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="N28" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I30" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N30" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N33" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L35" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N35" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B37" s="7">
+        <v>20667</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="7">
+        <v>11383</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L44" s="1">
+        <v>11383</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N44" s="1">
+        <v>28281</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N46" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N48" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B50" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I52" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N52" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I54" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N54" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N56" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N58" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I60" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L60" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N60" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I63" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L63" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N63" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B65" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L65" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N65" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I67" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L67" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N67" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B69" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I69" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L69" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N69" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" s="7">
+        <v>20667</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="7">
+        <v>17601</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="7">
+        <v>11383</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I71" s="7">
+        <v>28281</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L71" s="7">
+        <v>28281</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="N71" s="7">
+        <v>17601</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I73" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L73" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N73" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I75" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L75" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N75" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B77" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I77" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L77" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N77" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I79" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L79" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N79" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I81" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L81" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N81" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B83" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I83" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N83" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B85" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G85" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I85" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L85" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N85" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B87" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I87" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L87" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N87" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B89" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I89" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N89" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B91" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L91" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N91" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="1">
+        <v>20667</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="1">
+        <v>17601</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="1">
+        <v>11383</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="1">
+        <v>28281</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L93" s="1">
+        <v>28281</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93" s="1">
+        <v>17601</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A43:P43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>